--- a/Risk Register/Team_Risk_Register.xlsx
+++ b/Risk Register/Team_Risk_Register.xlsx
@@ -2849,8 +2849,8 @@
   </sheetPr>
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="10" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="10" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="12.75"/>
@@ -3203,7 +3203,7 @@
         <v>Green</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="110.25">
+    <row r="9" spans="1:17" ht="133.5" customHeight="1">
       <c r="A9" s="92">
         <v>4.0999999999999996</v>
       </c>
@@ -3219,28 +3219,28 @@
       <c r="E9" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="96">
         <v>3</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="97">
         <v>3</v>
       </c>
       <c r="H9" s="185" t="s">
         <v>126</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="97">
         <v>2</v>
       </c>
-      <c r="J9" s="64">
+      <c r="J9" s="97">
         <v>3</v>
       </c>
       <c r="K9" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="L9" s="66">
+      <c r="L9" s="99">
         <v>43946</v>
       </c>
-      <c r="M9" s="67">
+      <c r="M9" s="100">
         <v>43992</v>
       </c>
       <c r="N9" s="97" t="s">
